--- a/sample/excels/example.xlsx
+++ b/sample/excels/example.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23940" yWindow="5780" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>版本：</t>
   </si>
@@ -27,43 +27,61 @@
     <t>参数：</t>
   </si>
   <si>
+    <t>编号</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
-    <t>编号</t>
+    <t>菜刀</t>
+  </si>
+  <si>
+    <t>切菜用的</t>
+  </si>
+  <si>
+    <t>上方宝剑</t>
+  </si>
+  <si>
+    <t>偃月弯刀</t>
+  </si>
+  <si>
+    <t>掉落关卡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>品质</t>
+    <t>drops</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
+    <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>菜刀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>切菜用的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上方宝剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>偃月弯刀</t>
+    <t>1,2,3,4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +128,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +145,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F000"/>
       </patternFill>
     </fill>
   </fills>
@@ -171,39 +194,37 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -529,15 +550,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,79 +566,111 @@
         <v>100</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13"/>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/sample/excels/example.xlsx
+++ b/sample/excels/example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>版本：</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>1,2,3,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>键值是否重复：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一张范例表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,6 +231,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -550,26 +565,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>100</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,7 +605,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -595,7 +622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -612,7 +639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -629,7 +656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -646,7 +673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -661,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="6">
         <v>3</v>
       </c>
